--- a/data/trans_orig/Q23_tabaco_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q23_tabaco_R2-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>140746</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>124266</v>
+        <v>122606</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>159248</v>
+        <v>159647</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4232350708880868</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3736778794840147</v>
+        <v>0.3686856052154983</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4788707451257838</v>
+        <v>0.4800727475604447</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>80</v>
@@ -765,19 +765,19 @@
         <v>81313</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>67653</v>
+        <v>67929</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>95079</v>
+        <v>96131</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3277488622820056</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2726896121606783</v>
+        <v>0.2738029835983516</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3832386739978398</v>
+        <v>0.3874786976701178</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>221</v>
@@ -786,19 +786,19 @@
         <v>222059</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>198523</v>
+        <v>199558</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>244133</v>
+        <v>243637</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3824361881641879</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.341902463144234</v>
+        <v>0.343684491593983</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4204529374449203</v>
+        <v>0.4196000029513444</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>191802</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>173300</v>
+        <v>172901</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>208282</v>
+        <v>209942</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5767649291119132</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5211292548742162</v>
+        <v>0.5199272524395554</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6263221205159852</v>
+        <v>0.6313143947845017</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>160</v>
@@ -836,19 +836,19 @@
         <v>166781</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>153015</v>
+        <v>151963</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>180441</v>
+        <v>180165</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6722511377179945</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6167613260021604</v>
+        <v>0.612521302329882</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7273103878393218</v>
+        <v>0.7261970164016481</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>347</v>
@@ -857,19 +857,19 @@
         <v>358583</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>336509</v>
+        <v>337005</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>382119</v>
+        <v>381084</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6175638118358121</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5795470625550799</v>
+        <v>0.5803999970486556</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6580975368557662</v>
+        <v>0.6563155084060174</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>209863</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>186703</v>
+        <v>185043</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>233880</v>
+        <v>233786</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3470769077763405</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3087743875265677</v>
+        <v>0.306029593880775</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3867977557047644</v>
+        <v>0.3866409567782206</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>65</v>
@@ -982,19 +982,19 @@
         <v>66933</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52590</v>
+        <v>52596</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80731</v>
+        <v>82612</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2086169296563176</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1639100499997163</v>
+        <v>0.1639311492038645</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2516221830940337</v>
+        <v>0.2574826815065575</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>275</v>
@@ -1003,19 +1003,19 @@
         <v>276796</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>251554</v>
+        <v>250463</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>306651</v>
+        <v>302489</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2990769959153432</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2718027815513347</v>
+        <v>0.2706241964611224</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3313347398841815</v>
+        <v>0.3268379085320168</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>394795</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>370778</v>
+        <v>370872</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>417955</v>
+        <v>419615</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6529230922236595</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6132022442952354</v>
+        <v>0.6133590432217793</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6912256124734321</v>
+        <v>0.6939704061192249</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>246</v>
@@ -1053,19 +1053,19 @@
         <v>253911</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>240113</v>
+        <v>238232</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>268254</v>
+        <v>268248</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7913830703436825</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7483778169059662</v>
+        <v>0.7425173184934425</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8360899500002837</v>
+        <v>0.8360688507961355</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>632</v>
@@ -1074,19 +1074,19 @@
         <v>648706</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>618851</v>
+        <v>623013</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>673948</v>
+        <v>675039</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7009230040846568</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6686652601158185</v>
+        <v>0.6731620914679832</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7281972184486653</v>
+        <v>0.7293758035388777</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>181809</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>161143</v>
+        <v>159167</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>204877</v>
+        <v>205634</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3231786345416816</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2864433884022581</v>
+        <v>0.2829312213081979</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3641837265204458</v>
+        <v>0.3655307058135461</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>82</v>
@@ -1199,19 +1199,19 @@
         <v>80509</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>65880</v>
+        <v>65869</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>95793</v>
+        <v>94764</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.27467951965805</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2247682851605902</v>
+        <v>0.2247325154619723</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3268261079925964</v>
+        <v>0.3233157733048981</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>259</v>
@@ -1220,19 +1220,19 @@
         <v>262318</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>236874</v>
+        <v>236194</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>292170</v>
+        <v>287402</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3065657017566774</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2768307755632502</v>
+        <v>0.2760356591622664</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3414542042391132</v>
+        <v>0.3358816116615417</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>380755</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>357687</v>
+        <v>356930</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>401421</v>
+        <v>403397</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6768213654583184</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6358162734795542</v>
+        <v>0.6344692941864539</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7135566115977418</v>
+        <v>0.7170687786918022</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>205</v>
@@ -1270,19 +1270,19 @@
         <v>212591</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>197307</v>
+        <v>198336</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>227220</v>
+        <v>227231</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.72532048034195</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6731738920074034</v>
+        <v>0.676684226695102</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7752317148394094</v>
+        <v>0.7752674845380277</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>578</v>
@@ -1291,19 +1291,19 @@
         <v>593347</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>563495</v>
+        <v>568263</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>618791</v>
+        <v>619471</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6934342982433227</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6585457957608868</v>
+        <v>0.6641183883384589</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7231692244367498</v>
+        <v>0.7239643408377338</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>69111</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56042</v>
+        <v>56386</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83125</v>
+        <v>84025</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3506397518053349</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2843330919114673</v>
+        <v>0.2860745813286948</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4217392203522228</v>
+        <v>0.4263061733768337</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -1416,19 +1416,19 @@
         <v>28335</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19571</v>
+        <v>19441</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38310</v>
+        <v>37624</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.24714119574053</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1707002481927336</v>
+        <v>0.1695629966663865</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3341390107341511</v>
+        <v>0.3281546199966465</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>94</v>
@@ -1437,19 +1437,19 @@
         <v>97447</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79955</v>
+        <v>82006</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>113753</v>
+        <v>116142</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3125765344748368</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2564677720880345</v>
+        <v>0.2630463879339329</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3648816189992719</v>
+        <v>0.3725442472331399</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>127990</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>113976</v>
+        <v>113076</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>141059</v>
+        <v>140715</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6493602481946651</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5782607796477772</v>
+        <v>0.5736938266231665</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7156669080885328</v>
+        <v>0.7139254186713053</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>85</v>
@@ -1487,19 +1487,19 @@
         <v>86317</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>76342</v>
+        <v>77028</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>95081</v>
+        <v>95211</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.75285880425947</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6658609892658488</v>
+        <v>0.6718453800033536</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8292997518072663</v>
+        <v>0.8304370033336137</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>210</v>
@@ -1508,19 +1508,19 @@
         <v>214306</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>198000</v>
+        <v>195611</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>231798</v>
+        <v>229747</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6874234655251632</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6351183810007283</v>
+        <v>0.6274557527668601</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7435322279119654</v>
+        <v>0.7369536120660671</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>601529</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>559388</v>
+        <v>563560</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>641820</v>
+        <v>640670</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3544930139998015</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3296583240525753</v>
+        <v>0.3321171201840399</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3782370385845679</v>
+        <v>0.3775595414462113</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>256</v>
@@ -1633,19 +1633,19 @@
         <v>257090</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>231547</v>
+        <v>229820</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>285775</v>
+        <v>284006</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2632256200491411</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2370727317928596</v>
+        <v>0.2353045649478349</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2925951208800529</v>
+        <v>0.2907841012383988</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>849</v>
@@ -1654,19 +1654,19 @@
         <v>858619</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>814382</v>
+        <v>807408</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>907704</v>
+        <v>906392</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3211517449986546</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3046055513803845</v>
+        <v>0.3019969483192615</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3395109995529604</v>
+        <v>0.3390204771929939</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1095343</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1055052</v>
+        <v>1056202</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1137484</v>
+        <v>1133312</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6455069860001984</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6217629614154322</v>
+        <v>0.6224404585537887</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6703416759474247</v>
+        <v>0.6678828798159601</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>696</v>
@@ -1704,19 +1704,19 @@
         <v>719600</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>690915</v>
+        <v>692684</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>745143</v>
+        <v>746870</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7367743799508589</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7074048791199472</v>
+        <v>0.709215898761601</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7629272682071403</v>
+        <v>0.764695435052165</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1767</v>
@@ -1725,19 +1725,19 @@
         <v>1814943</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1765858</v>
+        <v>1767170</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1859180</v>
+        <v>1866154</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6788482550013454</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6604890004470396</v>
+        <v>0.660979522807006</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6953944486196155</v>
+        <v>0.6980030516807385</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>259332</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>231894</v>
+        <v>231277</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>285538</v>
+        <v>286149</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3878173564831583</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3467856802425557</v>
+        <v>0.3458632752350193</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4270079954565229</v>
+        <v>0.4279208111764763</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>134</v>
@@ -2090,19 +2090,19 @@
         <v>149400</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>130007</v>
+        <v>129167</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>170217</v>
+        <v>169818</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3276603807453434</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2851285748158491</v>
+        <v>0.2832853997070487</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3733146257887006</v>
+        <v>0.3724396215661984</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>376</v>
@@ -2111,19 +2111,19 @@
         <v>408732</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>373718</v>
+        <v>375296</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>440880</v>
+        <v>443512</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3634283920460306</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3322952964707489</v>
+        <v>0.3336985132950122</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.392013201881216</v>
+        <v>0.3943536514042642</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>409363</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>383157</v>
+        <v>382546</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>436801</v>
+        <v>437418</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6121826435168417</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5729920045434771</v>
+        <v>0.5720791888235236</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6532143197574443</v>
+        <v>0.6541367247649806</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>282</v>
@@ -2161,19 +2161,19 @@
         <v>306560</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>285743</v>
+        <v>286142</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>325953</v>
+        <v>326793</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6723396192546566</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6266853742112997</v>
+        <v>0.6275603784338016</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7148714251841513</v>
+        <v>0.716714600292951</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>660</v>
@@ -2182,19 +2182,19 @@
         <v>715924</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>683776</v>
+        <v>681144</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>750938</v>
+        <v>749360</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6365716079539694</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6079867981187839</v>
+        <v>0.6056463485957356</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6677047035292512</v>
+        <v>0.6663014867049878</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>224816</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>200943</v>
+        <v>201413</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>250381</v>
+        <v>250265</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3655050980198821</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3266927469191751</v>
+        <v>0.3274558584350387</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4070683205959086</v>
+        <v>0.4068791385653804</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>100</v>
@@ -2307,19 +2307,19 @@
         <v>110630</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>92003</v>
+        <v>93117</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>130923</v>
+        <v>130352</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2712852082235298</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2256090716596438</v>
+        <v>0.2283386987546337</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3210466460851635</v>
+        <v>0.3196467699498292</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>314</v>
@@ -2328,19 +2328,19 @@
         <v>335446</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>305112</v>
+        <v>303672</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>366550</v>
+        <v>368053</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3279418282138276</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2982859708591778</v>
+        <v>0.2968782667156492</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3583502633146865</v>
+        <v>0.3598195784438692</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>390268</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>364703</v>
+        <v>364819</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>414141</v>
+        <v>413671</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6344949019801178</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5929316794040914</v>
+        <v>0.5931208614346197</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.673307253080825</v>
+        <v>0.6725441415649615</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>274</v>
@@ -2378,19 +2378,19 @@
         <v>297170</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>276877</v>
+        <v>277448</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>315797</v>
+        <v>314683</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7287147917764702</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6789533539148365</v>
+        <v>0.6803532300501709</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7743909283403563</v>
+        <v>0.7716613012453662</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>642</v>
@@ -2399,19 +2399,19 @@
         <v>687437</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>656333</v>
+        <v>654830</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>717771</v>
+        <v>719211</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6720581717861723</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6416497366853134</v>
+        <v>0.6401804215561309</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7017140291408223</v>
+        <v>0.7031217332843509</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>163652</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>144078</v>
+        <v>142510</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>186845</v>
+        <v>187215</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3266736359843679</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2876019062720415</v>
+        <v>0.2844710729472927</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.372970138705962</v>
+        <v>0.3737091902389724</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -2524,19 +2524,19 @@
         <v>74318</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60863</v>
+        <v>60152</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92060</v>
+        <v>90986</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2456003734677472</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2011364087848469</v>
+        <v>0.1987856332780344</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3042324424830062</v>
+        <v>0.3006838431793825</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>227</v>
@@ -2545,19 +2545,19 @@
         <v>237970</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>211877</v>
+        <v>209721</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>263258</v>
+        <v>263335</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.296143952723937</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2636718153280876</v>
+        <v>0.2609893950615507</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3276134182787358</v>
+        <v>0.3277097075377576</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>337313</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>314120</v>
+        <v>313750</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>356887</v>
+        <v>358455</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6733263640156321</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6270298612940378</v>
+        <v>0.6262908097610276</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7123980937279585</v>
+        <v>0.7155289270527072</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>213</v>
@@ -2595,19 +2595,19 @@
         <v>228279</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>210537</v>
+        <v>211611</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>241734</v>
+        <v>242445</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7543996265322528</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6957675575169945</v>
+        <v>0.6993161568206178</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7988635912151532</v>
+        <v>0.801214366721966</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>523</v>
@@ -2616,19 +2616,19 @@
         <v>565592</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>540304</v>
+        <v>540227</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>591685</v>
+        <v>593841</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.703856047276063</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6723865817212642</v>
+        <v>0.6722902924622424</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7363281846719125</v>
+        <v>0.7390106049384494</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>78277</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>63904</v>
+        <v>63578</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>93791</v>
+        <v>94285</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3271004126595722</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.267036867230573</v>
+        <v>0.2656738286414079</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3919287240322293</v>
+        <v>0.3939923190395113</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -2741,19 +2741,19 @@
         <v>27231</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18137</v>
+        <v>18053</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37982</v>
+        <v>38447</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1851558213028225</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1233202717966231</v>
+        <v>0.1227471329451525</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2582595366894176</v>
+        <v>0.2614164188849582</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>94</v>
@@ -2762,19 +2762,19 @@
         <v>105508</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>86968</v>
+        <v>87298</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>125797</v>
+        <v>125019</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2730706464854036</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.225084708816083</v>
+        <v>0.2259391326010601</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3255799571114945</v>
+        <v>0.3235666126970538</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>161030</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>145516</v>
+        <v>145022</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>175403</v>
+        <v>175729</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6728995873404279</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6080712759677706</v>
+        <v>0.6060076809604887</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7329631327694269</v>
+        <v>0.7343261713585921</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>108</v>
@@ -2812,19 +2812,19 @@
         <v>119840</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>109089</v>
+        <v>108624</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>128934</v>
+        <v>129018</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8148441786971775</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7417404633105824</v>
+        <v>0.7385835811150419</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8766797282033769</v>
+        <v>0.8772528670548473</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>256</v>
@@ -2833,19 +2833,19 @@
         <v>280870</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>260581</v>
+        <v>261359</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>299410</v>
+        <v>299080</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7269293535145964</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6744200428885055</v>
+        <v>0.6764333873029464</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.774915291183917</v>
+        <v>0.7740608673989401</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>726078</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>685232</v>
+        <v>678732</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>772865</v>
+        <v>766362</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3587248184606333</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3385444768703238</v>
+        <v>0.3353333214326587</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3818402833840117</v>
+        <v>0.3786276547665013</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>329</v>
@@ -2958,19 +2958,19 @@
         <v>361579</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>329136</v>
+        <v>328776</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>397011</v>
+        <v>396972</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2752942255874531</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2505928286349803</v>
+        <v>0.2503186769741633</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3022704943233249</v>
+        <v>0.3022414857069772</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1011</v>
@@ -2979,19 +2979,19 @@
         <v>1087657</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1036161</v>
+        <v>1034306</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1149386</v>
+        <v>1145142</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.325891646170394</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3104622729454499</v>
+        <v>0.3099063994327367</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3443875053891494</v>
+        <v>0.3431158207528747</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1297974</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1251187</v>
+        <v>1257690</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1338820</v>
+        <v>1345320</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6412751815393667</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6181597166159886</v>
+        <v>0.6213723452334988</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6614555231296764</v>
+        <v>0.6646666785673414</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>877</v>
@@ -3029,19 +3029,19 @@
         <v>951849</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>916417</v>
+        <v>916456</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>984292</v>
+        <v>984652</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7247057744125469</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6977295056766748</v>
+        <v>0.6977585142930228</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7494071713650197</v>
+        <v>0.7496813230258367</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2081</v>
@@ -3050,19 +3050,19 @@
         <v>2249822</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2188093</v>
+        <v>2192337</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2301318</v>
+        <v>2303173</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6741083538296061</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6556124946108509</v>
+        <v>0.6568841792471256</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6895377270545506</v>
+        <v>0.6900936005672635</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>285433</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>256623</v>
+        <v>259400</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>312825</v>
+        <v>311842</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4212609044124693</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3787402392220051</v>
+        <v>0.3828387412005007</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4616872620848674</v>
+        <v>0.4602358070698196</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>143</v>
@@ -3415,19 +3415,19 @@
         <v>144390</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>125993</v>
+        <v>124165</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>167236</v>
+        <v>164975</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3004512098629173</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2621699561845747</v>
+        <v>0.2583657239113264</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3479900583792334</v>
+        <v>0.3432839823839351</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>413</v>
@@ -3436,19 +3436,19 @@
         <v>429824</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>396376</v>
+        <v>399917</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>464802</v>
+        <v>463568</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3711303978891918</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3422497375788375</v>
+        <v>0.3453075747052037</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4013323726625089</v>
+        <v>0.4002670025282568</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>392136</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>364744</v>
+        <v>365727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>420946</v>
+        <v>418169</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5787390955875307</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5383127379151323</v>
+        <v>0.5397641929301803</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6212597607779946</v>
+        <v>0.6171612587994991</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>318</v>
@@ -3486,19 +3486,19 @@
         <v>336188</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>313342</v>
+        <v>315603</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>354585</v>
+        <v>356413</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6995487901370826</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6520099416207666</v>
+        <v>0.6567160176160645</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7378300438154253</v>
+        <v>0.7416342760886735</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>683</v>
@@ -3507,19 +3507,19 @@
         <v>728323</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>693345</v>
+        <v>694579</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>761771</v>
+        <v>758230</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6288696021108082</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5986676273374908</v>
+        <v>0.5997329974717432</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6577502624211623</v>
+        <v>0.6546924252947963</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>155096</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>135212</v>
+        <v>135382</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>177561</v>
+        <v>176341</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3291148386877821</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2869221524642975</v>
+        <v>0.287282636936274</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3767866278116225</v>
+        <v>0.3741975600777478</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -3632,19 +3632,19 @@
         <v>83146</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>66940</v>
+        <v>67363</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>99042</v>
+        <v>99252</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2375103854635972</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1912167893269152</v>
+        <v>0.1924262034749008</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2829195560585959</v>
+        <v>0.2835185566790475</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>233</v>
@@ -3653,19 +3653,19 @@
         <v>238241</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>213793</v>
+        <v>214176</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>267406</v>
+        <v>265354</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2900703211337295</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2603034485202904</v>
+        <v>0.2607696625100774</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.325580537818453</v>
+        <v>0.3230810071634869</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>316155</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>293690</v>
+        <v>294910</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>336039</v>
+        <v>335869</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6708851613122179</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6232133721883777</v>
+        <v>0.6258024399222523</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7130778475357027</v>
+        <v>0.712717363063726</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>257</v>
@@ -3703,19 +3703,19 @@
         <v>266926</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>251030</v>
+        <v>250820</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>283132</v>
+        <v>282709</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7624896145364028</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7170804439414041</v>
+        <v>0.7164814433209525</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8087832106730848</v>
+        <v>0.8075737965250994</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>560</v>
@@ -3724,19 +3724,19 @@
         <v>583081</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>553916</v>
+        <v>555968</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>607529</v>
+        <v>607146</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7099296788662705</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.674419462181547</v>
+        <v>0.6769189928365127</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7396965514797097</v>
+        <v>0.7392303374899225</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>117815</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>99794</v>
+        <v>99181</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138100</v>
+        <v>137999</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3080084530413917</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2608956778083256</v>
+        <v>0.2592929618454433</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3610402921933956</v>
+        <v>0.3607766154997006</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -3849,19 +3849,19 @@
         <v>55181</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43317</v>
+        <v>43009</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70901</v>
+        <v>68753</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2247595193652265</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1764381325433153</v>
+        <v>0.175181276529742</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2887926684235195</v>
+        <v>0.2800430323740217</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>160</v>
@@ -3870,19 +3870,19 @@
         <v>172996</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>151622</v>
+        <v>147675</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>195529</v>
+        <v>195210</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2754639758619734</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2414299322163928</v>
+        <v>0.2351447621004643</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3113445546453432</v>
+        <v>0.3108362700525822</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>264691</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>244406</v>
+        <v>244507</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>282712</v>
+        <v>283325</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6919915469586083</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6389597078066044</v>
+        <v>0.6392233845002995</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7391043221916744</v>
+        <v>0.7407070381545567</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>185</v>
@@ -3920,19 +3920,19 @@
         <v>190329</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>174609</v>
+        <v>176757</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>202193</v>
+        <v>202501</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7752404806347735</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7112073315764805</v>
+        <v>0.7199569676259782</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8235618674566847</v>
+        <v>0.824818723470258</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>436</v>
@@ -3941,19 +3941,19 @@
         <v>455020</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>432487</v>
+        <v>432806</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>476394</v>
+        <v>480341</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7245360241380266</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6886554453546575</v>
+        <v>0.689163729947418</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7585700677836077</v>
+        <v>0.7648552378995359</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>73939</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>60194</v>
+        <v>60206</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88424</v>
+        <v>89864</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3314026647197263</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2697984954326713</v>
+        <v>0.2698530516492569</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3963297567729808</v>
+        <v>0.4027822359613301</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -4066,19 +4066,19 @@
         <v>37814</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27548</v>
+        <v>27697</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50257</v>
+        <v>49343</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2371110304017744</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1727403323555665</v>
+        <v>0.173673591545044</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3151376855406117</v>
+        <v>0.3094058180731088</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>104</v>
@@ -4087,19 +4087,19 @@
         <v>111752</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>94130</v>
+        <v>94939</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>130660</v>
+        <v>131720</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.292098039527305</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2460373502173319</v>
+        <v>0.2481526759798369</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3415183293637234</v>
+        <v>0.3442889482391482</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>149169</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>134684</v>
+        <v>133244</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>162914</v>
+        <v>162902</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6685973352802737</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6036702432270192</v>
+        <v>0.5972177640386699</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7302015045673289</v>
+        <v>0.7301469483507431</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>115</v>
@@ -4137,19 +4137,19 @@
         <v>121663</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>109220</v>
+        <v>110134</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>131929</v>
+        <v>131780</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7628889695982255</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6848623144593883</v>
+        <v>0.6905941819268913</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8272596676444336</v>
+        <v>0.826326408454956</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>253</v>
@@ -4158,19 +4158,19 @@
         <v>270833</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>251925</v>
+        <v>250865</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>288455</v>
+        <v>287646</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7079019604726949</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6584816706362765</v>
+        <v>0.6557110517608518</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.753962649782668</v>
+        <v>0.7518473240201631</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>632282</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>588437</v>
+        <v>592678</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>671237</v>
+        <v>674525</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3603912617172861</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3353998867712238</v>
+        <v>0.3378173475987331</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3825949700729526</v>
+        <v>0.3844691229327555</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>313</v>
@@ -4283,19 +4283,19 @@
         <v>320530</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>288776</v>
+        <v>291586</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>352017</v>
+        <v>351753</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2594050140535202</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2337064869177362</v>
+        <v>0.2359805194388233</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2848868616403797</v>
+        <v>0.2846736019034355</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>910</v>
@@ -4304,19 +4304,19 @@
         <v>952813</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>905230</v>
+        <v>903356</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1005084</v>
+        <v>1012472</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3186590137901749</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3027452152192919</v>
+        <v>0.3021184641472105</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3361405620327012</v>
+        <v>0.3386111907540548</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1122151</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1083196</v>
+        <v>1079908</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1165996</v>
+        <v>1161755</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6396087382827139</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6174050299270474</v>
+        <v>0.6155308770672447</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6646001132287762</v>
+        <v>0.6621826524012668</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>875</v>
@@ -4354,19 +4354,19 @@
         <v>915107</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>883620</v>
+        <v>883884</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>946861</v>
+        <v>944051</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7405949859464799</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.71511313835962</v>
+        <v>0.7153263980965644</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7662935130822636</v>
+        <v>0.7640194805611765</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1932</v>
@@ -4375,19 +4375,19 @@
         <v>2037258</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1984987</v>
+        <v>1977599</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2084841</v>
+        <v>2086715</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6813409862098251</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6638594379672991</v>
+        <v>0.661388809245945</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6972547847807081</v>
+        <v>0.6978815358527894</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>122310</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>105414</v>
+        <v>105523</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>139778</v>
+        <v>139668</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4464661454176609</v>
+        <v>0.4464661454176608</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3847913092150764</v>
+        <v>0.3851878589542949</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5102295954129261</v>
+        <v>0.5098294700964895</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>72</v>
@@ -4740,19 +4740,19 @@
         <v>57233</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>46202</v>
+        <v>46064</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>70048</v>
+        <v>69278</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2962014931996227</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2391136688519493</v>
+        <v>0.2383986115209469</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3625207913822247</v>
+        <v>0.3585383267291424</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>196</v>
@@ -4761,19 +4761,19 @@
         <v>179543</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>157782</v>
+        <v>160454</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>199253</v>
+        <v>201687</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3843164819284263</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3377367382335987</v>
+        <v>0.3434559160870265</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4265066869803024</v>
+        <v>0.4317158216651649</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>151641</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>134173</v>
+        <v>134283</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>168537</v>
+        <v>168428</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5535338545823392</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4897704045870737</v>
+        <v>0.4901705299035106</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6152086907849236</v>
+        <v>0.614812141045705</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>183</v>
@@ -4811,19 +4811,19 @@
         <v>135991</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>123176</v>
+        <v>123946</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>147022</v>
+        <v>147160</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7037985068003773</v>
+        <v>0.7037985068003774</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6374792086177753</v>
+        <v>0.6414616732708576</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7608863311480507</v>
+        <v>0.761601388479053</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>329</v>
@@ -4832,19 +4832,19 @@
         <v>287632</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>267922</v>
+        <v>265488</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>309393</v>
+        <v>306721</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6156835180715736</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5734933130196974</v>
+        <v>0.5682841783348351</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6622632617664012</v>
+        <v>0.6565440839129734</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>154847</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>133148</v>
+        <v>134407</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>175547</v>
+        <v>175848</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3477806870289467</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2990451367107492</v>
+        <v>0.3018723892252871</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.394272724414674</v>
+        <v>0.3949482147767222</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>83</v>
@@ -4957,19 +4957,19 @@
         <v>61736</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50914</v>
+        <v>50165</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>74644</v>
+        <v>75454</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2052824104609078</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1692980116023389</v>
+        <v>0.1668062386711571</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2482022749770588</v>
+        <v>0.2508972136652902</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>244</v>
@@ -4978,19 +4978,19 @@
         <v>216583</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>191245</v>
+        <v>193697</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>241437</v>
+        <v>242995</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2903333131734544</v>
+        <v>0.2903333131734545</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2563674684627126</v>
+        <v>0.2596537997249323</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3236498979894806</v>
+        <v>0.3257387343039592</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>290396</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>269696</v>
+        <v>269395</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>312095</v>
+        <v>310836</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6522193129710533</v>
+        <v>0.6522193129710532</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6057272755853262</v>
+        <v>0.6050517852232776</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7009548632892518</v>
+        <v>0.6981276107747127</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>322</v>
@@ -5028,19 +5028,19 @@
         <v>239002</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>226094</v>
+        <v>225284</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>249824</v>
+        <v>250573</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7947175895390923</v>
+        <v>0.7947175895390922</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7517977250229412</v>
+        <v>0.7491027863347097</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8307019883976613</v>
+        <v>0.833193761328843</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>602</v>
@@ -5049,19 +5049,19 @@
         <v>529398</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>504544</v>
+        <v>502986</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>554736</v>
+        <v>552284</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7096666868265454</v>
+        <v>0.7096666868265455</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6763501020105194</v>
+        <v>0.6742612656960408</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7436325315372871</v>
+        <v>0.7403462002750678</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>97621</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80270</v>
+        <v>80618</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>116458</v>
+        <v>118548</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2384163829574103</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1960390745807803</v>
+        <v>0.1968883725110712</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2844194398390207</v>
+        <v>0.2895246907793647</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>93</v>
@@ -5174,19 +5174,19 @@
         <v>67738</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54699</v>
+        <v>55581</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>81530</v>
+        <v>81510</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2536525622340127</v>
+        <v>0.2536525622340126</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2048282488326766</v>
+        <v>0.2081293285172694</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3053000655834854</v>
+        <v>0.3052252045059055</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>203</v>
@@ -5195,19 +5195,19 @@
         <v>165359</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>143088</v>
+        <v>143415</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>186863</v>
+        <v>187706</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2444308082765105</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2115096565422187</v>
+        <v>0.2119939492950925</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2762178598543247</v>
+        <v>0.2774636784795653</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>311837</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>293000</v>
+        <v>290910</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>329188</v>
+        <v>328840</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7615836170425897</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7155805601609792</v>
+        <v>0.7104753092206353</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8039609254192193</v>
+        <v>0.8031116274889285</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>289</v>
@@ -5245,19 +5245,19 @@
         <v>199311</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>185519</v>
+        <v>185539</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>212350</v>
+        <v>211468</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7463474377659874</v>
+        <v>0.7463474377659873</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6946999344165146</v>
+        <v>0.6947747954940945</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7951717511673233</v>
+        <v>0.7918706714827306</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>600</v>
@@ -5266,19 +5266,19 @@
         <v>511148</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>489644</v>
+        <v>488801</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>533419</v>
+        <v>533092</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7555691917234894</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7237821401456753</v>
+        <v>0.7225363215204345</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7884903434577812</v>
+        <v>0.7880060507049074</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>135646</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>114881</v>
+        <v>116636</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>157435</v>
+        <v>156585</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3378698202185152</v>
+        <v>0.3378698202185151</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2861484807792622</v>
+        <v>0.290517903638503</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3921407186987497</v>
+        <v>0.3900239489217924</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>81</v>
@@ -5391,19 +5391,19 @@
         <v>59281</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>47323</v>
+        <v>47563</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72960</v>
+        <v>72841</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2066665145517533</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1649771853446705</v>
+        <v>0.165814350087873</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.254351763062269</v>
+        <v>0.2539373127716325</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>223</v>
@@ -5412,19 +5412,19 @@
         <v>194928</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>171175</v>
+        <v>169270</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>218069</v>
+        <v>220572</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2831931677158237</v>
+        <v>0.2831931677158238</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2486848536704709</v>
+        <v>0.2459166821136208</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3168131209158356</v>
+        <v>0.320448771835945</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>265829</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>244040</v>
+        <v>244890</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>286594</v>
+        <v>284839</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6621301797814849</v>
+        <v>0.6621301797814848</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6078592813012504</v>
+        <v>0.6099760510782076</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7138515192207378</v>
+        <v>0.709482096361497</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>318</v>
@@ -5462,19 +5462,19 @@
         <v>227565</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>213886</v>
+        <v>214005</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>239523</v>
+        <v>239283</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7933334854482467</v>
+        <v>0.7933334854482468</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.745648236937731</v>
+        <v>0.7460626872283675</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8350228146553297</v>
+        <v>0.8341856499121268</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>583</v>
@@ -5483,19 +5483,19 @@
         <v>493393</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>470252</v>
+        <v>467749</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>517146</v>
+        <v>519051</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7168068322841761</v>
+        <v>0.7168068322841764</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6831868790841644</v>
+        <v>0.679551228164055</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.751315146329529</v>
+        <v>0.7540833178863791</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>510425</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>471277</v>
+        <v>474174</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>548554</v>
+        <v>549793</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3335830909112112</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3079983789986616</v>
+        <v>0.3098918195471607</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3585018657117392</v>
+        <v>0.3593119756851313</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>329</v>
@@ -5608,19 +5608,19 @@
         <v>245989</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>222087</v>
+        <v>220297</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>275093</v>
+        <v>270920</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2347539817968964</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2119436578493243</v>
+        <v>0.2102353964446598</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2625291555667556</v>
+        <v>0.2585471007986014</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>866</v>
@@ -5629,19 +5629,19 @@
         <v>756413</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>712357</v>
+        <v>711901</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>800870</v>
+        <v>802937</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2934126638054036</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2763233920052092</v>
+        <v>0.276146291359841</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3106576359573111</v>
+        <v>0.3114593544525088</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1019703</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>981574</v>
+        <v>980335</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1058851</v>
+        <v>1055954</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6664169090887887</v>
+        <v>0.6664169090887886</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.641498134288261</v>
+        <v>0.6406880243148688</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6920016210013388</v>
+        <v>0.6901081804528395</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1112</v>
@@ -5679,19 +5679,19 @@
         <v>801868</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>772764</v>
+        <v>776937</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>825770</v>
+        <v>827560</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7652460182031037</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7374708444332444</v>
+        <v>0.7414528992013988</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7880563421506757</v>
+        <v>0.7897646035553402</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2114</v>
@@ -5700,19 +5700,19 @@
         <v>1821571</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1777114</v>
+        <v>1775047</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1865627</v>
+        <v>1866083</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7065873361945963</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.689342364042689</v>
+        <v>0.6885406455474914</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7236766079947908</v>
+        <v>0.7238537086401591</v>
       </c>
     </row>
     <row r="18">
